--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2597.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2597.xlsx
@@ -354,7 +354,7 @@
         <v>1.378614605516439</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.172801403380623</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2597.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2597.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7754325638685252</v>
+        <v>1.507663369178772</v>
       </c>
       <c r="B1">
-        <v>1.378614605516439</v>
+        <v>2.352208375930786</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.276742458343506</v>
       </c>
       <c r="D1">
-        <v>2.172801403380623</v>
+        <v>3.581472635269165</v>
       </c>
       <c r="E1">
-        <v>0.9748187394692556</v>
+        <v>1.030079960823059</v>
       </c>
     </row>
   </sheetData>
